--- a/resultadosMLP/resultadosMLP.xlsx
+++ b/resultadosMLP/resultadosMLP.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>Base de dados utilizada para treinamento e testes: iris.csv</t>
   </si>
@@ -58,18 +58,6 @@
     <t xml:space="preserve"> - Testando fold (r=10): </t>
   </si>
   <si>
-    <t>Dimensões    =&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Médias por dimensão: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Desvio padrão por dimensão: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extração de características com PCA </t>
-  </si>
-  <si>
     <t>Base de dados utilizada para treinamento e testes: wine.csv</t>
   </si>
   <si>
@@ -86,6 +74,21 @@
   </si>
   <si>
     <t>taxa aprendizagem</t>
+  </si>
+  <si>
+    <t>Ciclos</t>
+  </si>
+  <si>
+    <t>Taxa de aprendizagem</t>
+  </si>
+  <si>
+    <t>Neuronios por camada</t>
+  </si>
+  <si>
+    <t>18, 10, 3</t>
+  </si>
+  <si>
+    <t>3, 3, 3</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -430,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -442,7 +445,7 @@
     <col min="2" max="2" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -450,17 +453,20 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -471,13 +477,16 @@
       <c r="F3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -485,7 +494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -493,7 +502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -501,7 +510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -509,7 +518,7 @@
         <v>0.93333333333333302</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -517,7 +526,7 @@
         <v>0.86666666666666603</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -525,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -533,7 +542,7 @@
         <v>0.86666666666666603</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -541,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -549,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -559,7 +568,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2">
         <f>AVERAGE(B6:B15)</f>
@@ -568,7 +577,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3">
         <f>STDEV(B6:B15)</f>
@@ -609,7 +618,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -619,7 +628,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -638,7 +647,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -655,17 +664,37 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
+    <row r="4" spans="1:15">
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>10000</v>
+      </c>
+      <c r="F5">
+        <v>1E-3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0.76919999999999999</v>
+        <v>0.58333299999999999</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -673,7 +702,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>0.84619999999999995</v>
+        <v>0.41665999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -681,7 +710,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>0.61539999999999995</v>
+        <v>0.66666000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -689,7 +718,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.53849999999999998</v>
+        <v>0.66666000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -697,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>0.53849999999999998</v>
+        <v>0.58333299999999999</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -705,7 +734,7 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0.46150000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -713,7 +742,7 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>0.46150000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -721,7 +750,7 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>0.92310000000000003</v>
+        <v>0.58333299999999999</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -729,7 +758,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>0.84619999999999995</v>
+        <v>0.66666599999999998</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -737,632 +766,59 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>0.61539999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3">
         <f>AVERAGE(B6:B15)</f>
-        <v>0.66154999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.56666450000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3">
         <f>STDEV(B6:B15)</f>
-        <v>0.17087045938045822</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-      <c r="G22">
-        <v>6</v>
-      </c>
-      <c r="H22">
-        <v>7</v>
-      </c>
-      <c r="I22">
-        <v>8</v>
-      </c>
-      <c r="J22">
-        <v>9</v>
-      </c>
-      <c r="K22">
-        <v>10</v>
-      </c>
-      <c r="L22">
-        <v>11</v>
-      </c>
-      <c r="M22">
-        <v>12</v>
-      </c>
-      <c r="N22">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23">
-        <v>0.75</v>
-      </c>
-      <c r="C23">
-        <v>0.75</v>
-      </c>
-      <c r="D23">
-        <v>0.83330000000000004</v>
-      </c>
-      <c r="E23">
-        <v>0.83330000000000004</v>
-      </c>
-      <c r="F23">
-        <v>0.83330000000000004</v>
-      </c>
-      <c r="G23">
-        <v>0.83330000000000004</v>
-      </c>
-      <c r="H23">
-        <v>0.83330000000000004</v>
-      </c>
-      <c r="I23">
-        <v>0.83330000000000004</v>
-      </c>
-      <c r="J23">
-        <v>0.83330000000000004</v>
-      </c>
-      <c r="K23">
-        <v>0.83330000000000004</v>
-      </c>
-      <c r="L23">
-        <v>0.83330000000000004</v>
-      </c>
-      <c r="M23">
-        <v>0.83330000000000004</v>
-      </c>
-      <c r="N23">
-        <v>0.76919999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="C24">
-        <v>0.83330000000000004</v>
-      </c>
-      <c r="D24">
-        <v>0.83330000000000004</v>
-      </c>
-      <c r="E24">
-        <v>0.83330000000000004</v>
-      </c>
-      <c r="F24">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="G24">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="H24">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="I24">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="J24">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="K24">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="L24">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="M24">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="N24">
-        <v>0.84619999999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="C25">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="D25">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="E25">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="F25">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="G25">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="H25">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="I25">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="J25">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="K25">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="L25">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="M25">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="N25">
-        <v>0.61539999999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26">
-        <v>0.5</v>
-      </c>
-      <c r="C26">
-        <v>0.5</v>
-      </c>
-      <c r="D26">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="E26">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="F26">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="G26">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="H26">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="I26">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="J26">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="K26">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="L26">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="M26">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="N26">
-        <v>0.53849999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27">
-        <v>0.75</v>
-      </c>
-      <c r="C27">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="D27">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="E27">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="F27">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="G27">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="H27">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="I27">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="J27">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="K27">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="L27">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="M27">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="N27">
-        <v>0.58330000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28">
-        <v>0.75</v>
-      </c>
-      <c r="C28">
-        <v>0.41670000000000001</v>
-      </c>
-      <c r="D28">
-        <v>0.41670000000000001</v>
-      </c>
-      <c r="E28">
-        <v>0.5</v>
-      </c>
-      <c r="F28">
-        <v>0.5</v>
-      </c>
-      <c r="G28">
-        <v>0.5</v>
-      </c>
-      <c r="H28">
-        <v>0.5</v>
-      </c>
-      <c r="I28">
-        <v>0.5</v>
-      </c>
-      <c r="J28">
-        <v>0.5</v>
-      </c>
-      <c r="K28">
-        <v>0.5</v>
-      </c>
-      <c r="L28">
-        <v>0.5</v>
-      </c>
-      <c r="M28">
-        <v>0.5</v>
-      </c>
-      <c r="N28">
-        <v>0.46150000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="C29">
-        <v>0.5</v>
-      </c>
-      <c r="D29">
-        <v>0.41670000000000001</v>
-      </c>
-      <c r="E29">
-        <v>0.5</v>
-      </c>
-      <c r="F29">
-        <v>0.5</v>
-      </c>
-      <c r="G29">
-        <v>0.5</v>
-      </c>
-      <c r="H29">
-        <v>0.5</v>
-      </c>
-      <c r="I29">
-        <v>0.5</v>
-      </c>
-      <c r="J29">
-        <v>0.5</v>
-      </c>
-      <c r="K29">
-        <v>0.5</v>
-      </c>
-      <c r="L29">
-        <v>0.5</v>
-      </c>
-      <c r="M29">
-        <v>0.5</v>
-      </c>
-      <c r="N29">
-        <v>0.46150000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30">
-        <v>0.75</v>
-      </c>
-      <c r="C30">
-        <v>0.75</v>
-      </c>
-      <c r="D30">
-        <v>0.75</v>
-      </c>
-      <c r="E30">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="F30">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>0.92310000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31">
-        <v>0.83330000000000004</v>
-      </c>
-      <c r="C31">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="D31">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="E31">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="F31">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="G31">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="H31">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="I31">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="J31">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="K31">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="L31">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="M31">
-        <v>0.91669999999999996</v>
-      </c>
-      <c r="N31">
-        <v>0.84619999999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32">
-        <v>0.75</v>
-      </c>
-      <c r="C32">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="D32">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="E32">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="F32">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="G32">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="H32">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="I32">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="J32">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="K32">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="L32">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="M32">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="N32">
-        <v>0.61539999999999995</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>8.6065758722618693E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15">
       <c r="O33" s="4"/>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="1">
-        <f>AVERAGE(B23:B32)</f>
-        <v>0.69166000000000005</v>
-      </c>
-      <c r="C34" s="1">
-        <f t="shared" ref="C34:N34" si="0">AVERAGE(C23:C32)</f>
-        <v>0.64999999999999991</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="0"/>
-        <v>0.65832999999999997</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="0"/>
-        <v>0.70833999999999986</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="0"/>
-        <v>0.71666999999999992</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" si="0"/>
-        <v>0.71666999999999992</v>
-      </c>
-      <c r="I34" s="1">
-        <f>AVERAGE(I23:I32)</f>
-        <v>0.71666999999999992</v>
-      </c>
-      <c r="J34" s="1">
-        <f t="shared" si="0"/>
-        <v>0.71666999999999992</v>
-      </c>
-      <c r="K34" s="1">
-        <f t="shared" si="0"/>
-        <v>0.71666999999999992</v>
-      </c>
-      <c r="L34" s="1">
-        <f t="shared" si="0"/>
-        <v>0.71666999999999992</v>
-      </c>
-      <c r="M34" s="1">
-        <f t="shared" si="0"/>
-        <v>0.71666999999999992</v>
-      </c>
-      <c r="N34" s="1">
-        <f t="shared" si="0"/>
-        <v>0.6660299999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="1">
-        <f>STDEV(B23:B32)</f>
-        <v>0.1043072406137</v>
-      </c>
-      <c r="C35" s="1">
-        <f t="shared" ref="C35:N35" si="1">STDEV(C23:C32)</f>
-        <v>0.16101529948010168</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1732423225812138</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" si="1"/>
-        <v>0.16292845055422395</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" si="1"/>
-        <v>0.17237090628448176</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" si="1"/>
-        <v>0.18510157601826252</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" si="1"/>
-        <v>0.18510157601826252</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" si="1"/>
-        <v>0.18510157601826252</v>
-      </c>
-      <c r="J35" s="1">
-        <f t="shared" si="1"/>
-        <v>0.18510157601826252</v>
-      </c>
-      <c r="K35" s="1">
-        <f t="shared" si="1"/>
-        <v>0.18510157601826252</v>
-      </c>
-      <c r="L35" s="1">
-        <f t="shared" si="1"/>
-        <v>0.18510157601826252</v>
-      </c>
-      <c r="M35" s="1">
-        <f t="shared" si="1"/>
-        <v>0.18510157601826252</v>
-      </c>
-      <c r="N35" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1678463189282918</v>
-      </c>
+    <row r="34" spans="2:15">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
